--- a/data.xlsx
+++ b/data.xlsx
@@ -1,58 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code\SudokuSolver\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510D9744-01A9-4E0B-8D1F-821DD591E48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Input Matrix" sheetId="1" r:id="rId1"/>
-    <sheet name="Solution Matrix" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input Matrix" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Solution Matrix" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="36"/>
-      <color rgb="FF000000"/>
       <name val="黑体"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="36"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,6 +69,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC166"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC166"/>
       </patternFill>
     </fill>
   </fills>
@@ -233,186 +242,270 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="86">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -700,9 +793,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -710,534 +804,533 @@
       <selection activeCell="R8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="8.25" style="21" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="5" min="2" style="22" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="11" min="6" style="21" width="8.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6">
+    <row customHeight="1" ht="50.1" r="1" spans="1:11">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="2" spans="1:11">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9">
+      <c r="G2" s="7" t="n"/>
+      <c r="H2" s="8" t="n"/>
+      <c r="I2" s="6" t="n"/>
+      <c r="J2" s="7" t="n"/>
+      <c r="K2" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="3" spans="1:11">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9">
+      <c r="C3" s="19" t="n"/>
+      <c r="D3" s="10" t="n"/>
+      <c r="E3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12">
+      <c r="F3" s="11" t="n"/>
+      <c r="G3" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12">
+      <c r="H3" s="13" t="n"/>
+      <c r="I3" s="11" t="n"/>
+      <c r="J3" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15">
+      <c r="K3" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="4" spans="1:11">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="14" t="n"/>
+      <c r="C4" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="16">
+      <c r="D4" s="20" t="n"/>
+      <c r="E4" s="14" t="n"/>
+      <c r="F4" s="16" t="n"/>
+      <c r="G4" s="17" t="n"/>
+      <c r="H4" s="18" t="n"/>
+      <c r="I4" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5">
+      <c r="J4" s="17" t="n"/>
+      <c r="K4" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="5" spans="1:11">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7">
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="10">
+      <c r="H5" s="8" t="n"/>
+      <c r="I5" s="6" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="6" spans="1:11">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="9" t="n"/>
+      <c r="C6" s="19" t="n"/>
+      <c r="D6" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="23">
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13">
+      <c r="G6" s="12" t="n"/>
+      <c r="H6" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15">
+      <c r="I6" s="11" t="n"/>
+      <c r="J6" s="12" t="n"/>
+      <c r="K6" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="7" spans="1:11">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="14" t="n"/>
+      <c r="C7" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="16">
+      <c r="D7" s="20" t="n"/>
+      <c r="E7" s="14" t="n"/>
+      <c r="F7" s="16" t="n"/>
+      <c r="G7" s="17" t="n"/>
+      <c r="H7" s="18" t="n"/>
+      <c r="I7" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4">
+      <c r="J7" s="17" t="n"/>
+      <c r="K7" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="8" spans="1:11">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8">
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1"/>
-      <c r="B9" s="9">
+      <c r="I8" s="6" t="n"/>
+      <c r="J8" s="7" t="n"/>
+      <c r="K8" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="9" spans="1:11">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="11">
+      <c r="C9" s="19" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12">
+      <c r="G9" s="12" t="n"/>
+      <c r="H9" s="13" t="n"/>
+      <c r="I9" s="11" t="n"/>
+      <c r="J9" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15">
+      <c r="K9" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="10" spans="1:11">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="14">
+      <c r="D10" s="20" t="n"/>
+      <c r="E10" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17">
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="16">
+      <c r="H10" s="18" t="n"/>
+      <c r="I10" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J10" s="17" t="n"/>
+      <c r="K10" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="11" spans="1:11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="A1:XFD1048576"/>
+      <selection activeCell="O11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="8.25" style="21" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="5" min="2" style="22" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="11" min="6" style="21" width="8.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="24">
+    <row customHeight="1" ht="19.5" r="1" spans="1:11">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="47.25" r="2" spans="1:11">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="55" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="56" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="55" t="n">
         <v>8</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="58" t="n">
         <v>6</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="59" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="60" t="n">
         <v>7</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="59" t="n">
         <v>5</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="31">
+      <c r="K2" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="47.25" r="3" spans="1:11">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="62" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="63" t="n">
         <v>7</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="64" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="65" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="66" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="67" t="n">
         <v>6</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="65" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="66" t="n">
         <v>9</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="37">
+      <c r="K3" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="48" r="4" spans="1:11">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="68" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="69" t="n">
         <v>6</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="70" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="71" t="n">
         <v>7</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="72" t="n">
         <v>9</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="73" t="n">
         <v>8</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1"/>
-      <c r="B5" s="24">
+      <c r="K4" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="47.25" r="5" spans="1:11">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="55" t="n">
         <v>7</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="75" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="61" t="n">
         <v>9</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="76" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="59" t="n">
         <v>8</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1"/>
-      <c r="B6" s="46">
+      <c r="K5" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="47.25" r="6" spans="1:11">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="63" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="78" t="n">
         <v>3</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="80" t="n">
         <v>8</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="81" t="n">
         <v>9</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="65" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="80" t="n">
         <v>6</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1"/>
-      <c r="B7" s="37">
+      <c r="K6" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="48" r="7" spans="1:11">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="68" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="69" t="n">
         <v>8</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="71" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="72" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="74" t="n">
         <v>7</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1"/>
-      <c r="B8" s="24">
+      <c r="K7" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="47.25" r="8" spans="1:11">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="55" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="82" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="55" t="n">
         <v>9</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="59" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="83" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="61" t="n">
         <v>8</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="59" t="n">
         <v>7</v>
       </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1"/>
-      <c r="B9" s="31">
+      <c r="K8" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="9" spans="1:11">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="64" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="80" t="n">
         <v>6</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="65" t="n">
         <v>9</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="66" t="n">
         <v>4</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1"/>
-      <c r="B10" s="37">
+      <c r="K9" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="10" spans="1:11">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="70" t="n">
         <v>9</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="84" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="71" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="85" t="n">
         <v>7</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="73" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K10" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="11" spans="1:11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -49,7 +49,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -69,6 +69,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC166"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -244,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -252,58 +258,58 @@
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -312,102 +318,6 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="2" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -417,88 +327,76 @@
     <xf applyAlignment="1" borderId="4" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="9" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -801,190 +699,194 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="A1:XFD1048576"/>
+      <selection activeCell="P9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="8.25"/>
-    <col bestFit="1" customWidth="1" max="5" min="2" style="22" width="8.25"/>
-    <col bestFit="1" customWidth="1" max="11" min="6" style="21" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="10" min="2" style="22" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="21" width="8.25"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="50.1" r="1" spans="1:11">
+    <row customHeight="1" ht="18.75" r="1" spans="1:11" thickBot="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="2" t="n"/>
       <c r="D1" s="2" t="n"/>
       <c r="E1" s="2" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
       <c r="K1" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="50.1" r="2" spans="1:11">
+    <row customHeight="1" ht="47.25" r="2" spans="1:11">
       <c r="A2" s="1" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="6" t="n">
+      <c r="B2" s="23" t="n"/>
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="23" t="n"/>
+      <c r="F2" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="n"/>
-      <c r="H2" s="8" t="n"/>
-      <c r="I2" s="6" t="n"/>
-      <c r="J2" s="7" t="n"/>
+      <c r="G2" s="25" t="n"/>
+      <c r="H2" s="23" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="25" t="n"/>
       <c r="K2" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="50.1" r="3" spans="1:11">
+    <row customHeight="1" ht="47.25" r="3" spans="1:11">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="19" t="n"/>
-      <c r="D3" s="10" t="n"/>
-      <c r="E3" s="9" t="n">
+      <c r="C3" s="27" t="n"/>
+      <c r="D3" s="28" t="n"/>
+      <c r="E3" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="n"/>
-      <c r="G3" s="12" t="n">
+      <c r="F3" s="27" t="n"/>
+      <c r="G3" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="13" t="n"/>
-      <c r="I3" s="11" t="n"/>
-      <c r="J3" s="12" t="n">
+      <c r="H3" s="26" t="n"/>
+      <c r="I3" s="27" t="n"/>
+      <c r="J3" s="28" t="n">
         <v>9</v>
       </c>
       <c r="K3" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="50.1" r="4" spans="1:11">
+    <row customHeight="1" ht="48" r="4" spans="1:11" thickBot="1">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="14" t="n"/>
-      <c r="C4" s="15" t="n">
+      <c r="B4" s="29" t="n"/>
+      <c r="C4" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="D4" s="20" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="16" t="n"/>
-      <c r="G4" s="17" t="n"/>
-      <c r="H4" s="18" t="n"/>
-      <c r="I4" s="16" t="n">
+      <c r="D4" s="31" t="n"/>
+      <c r="E4" s="29" t="n"/>
+      <c r="F4" s="30" t="n"/>
+      <c r="G4" s="31" t="n"/>
+      <c r="H4" s="29" t="n"/>
+      <c r="I4" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="17" t="n"/>
+      <c r="J4" s="31" t="n"/>
       <c r="K4" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="50.1" r="5" spans="1:11">
+    <row customHeight="1" ht="47.25" r="5" spans="1:11">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="5" t="n">
+      <c r="B5" s="23" t="n"/>
+      <c r="C5" s="24" t="n"/>
+      <c r="D5" s="25" t="n"/>
+      <c r="E5" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="24" t="n"/>
+      <c r="G5" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="8" t="n"/>
-      <c r="I5" s="6" t="n"/>
-      <c r="J5" s="7" t="n"/>
+      <c r="H5" s="23" t="n"/>
+      <c r="I5" s="24" t="n"/>
+      <c r="J5" s="25" t="n"/>
       <c r="K5" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="6" spans="1:11">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="9" t="n"/>
-      <c r="C6" s="19" t="n"/>
-      <c r="D6" s="10" t="n">
+      <c r="B6" s="26" t="n"/>
+      <c r="C6" s="27" t="n"/>
+      <c r="D6" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="E6" s="9" t="n"/>
-      <c r="F6" s="23" t="n">
+      <c r="E6" s="26" t="n"/>
+      <c r="F6" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="12" t="n"/>
-      <c r="H6" s="13" t="n">
+      <c r="G6" s="28" t="n"/>
+      <c r="H6" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="I6" s="11" t="n"/>
-      <c r="J6" s="12" t="n"/>
+      <c r="I6" s="27" t="n"/>
+      <c r="J6" s="28" t="n"/>
       <c r="K6" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="50.1" r="7" spans="1:11">
+    <row customHeight="1" ht="50.1" r="7" spans="1:11" thickBot="1">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="15" t="n">
+      <c r="B7" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="n"/>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="16" t="n"/>
-      <c r="G7" s="17" t="n"/>
-      <c r="H7" s="18" t="n"/>
-      <c r="I7" s="16" t="n">
+      <c r="D7" s="31" t="n"/>
+      <c r="E7" s="29" t="n"/>
+      <c r="F7" s="30" t="n"/>
+      <c r="G7" s="31" t="n"/>
+      <c r="H7" s="29" t="n"/>
+      <c r="I7" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="J7" s="17" t="n"/>
+      <c r="J7" s="31" t="n"/>
       <c r="K7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="8" spans="1:11">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="4" t="n">
+      <c r="B8" s="23" t="n"/>
+      <c r="C8" s="24" t="n"/>
+      <c r="D8" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="6" t="n"/>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="8" t="n">
+      <c r="E8" s="23" t="n"/>
+      <c r="F8" s="24" t="n"/>
+      <c r="G8" s="25" t="n"/>
+      <c r="H8" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="6" t="n"/>
-      <c r="J8" s="7" t="n"/>
+      <c r="I8" s="24" t="n"/>
+      <c r="J8" s="25" t="n"/>
       <c r="K8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="9" spans="1:11">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="19" t="n"/>
-      <c r="D9" s="10" t="n"/>
-      <c r="E9" s="9" t="n"/>
-      <c r="F9" s="11" t="n">
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="28" t="n"/>
+      <c r="E9" s="26" t="n"/>
+      <c r="F9" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="12" t="n"/>
-      <c r="H9" s="13" t="n"/>
-      <c r="I9" s="11" t="n"/>
-      <c r="J9" s="12" t="n">
+      <c r="G9" s="28" t="n"/>
+      <c r="H9" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="27" t="n"/>
+      <c r="J9" s="28" t="n">
         <v>4</v>
       </c>
       <c r="K9" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="50.1" r="10" spans="1:11">
+    <row customHeight="1" ht="50.1" r="10" spans="1:11" thickBot="1">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="15" t="n">
+      <c r="B10" s="29" t="n"/>
+      <c r="C10" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="20" t="n"/>
-      <c r="E10" s="14" t="n">
+      <c r="D10" s="31" t="n"/>
+      <c r="E10" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="16" t="n"/>
-      <c r="G10" s="17" t="n">
+      <c r="F10" s="30" t="n"/>
+      <c r="G10" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="H10" s="18" t="n"/>
-      <c r="I10" s="16" t="n">
+      <c r="H10" s="29" t="n"/>
+      <c r="I10" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="17" t="n"/>
+      <c r="J10" s="31" t="n"/>
       <c r="K10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="11" spans="1:11">
@@ -993,11 +895,11 @@
       <c r="C11" s="2" t="n"/>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
-      <c r="F11" s="1" t="n"/>
-      <c r="G11" s="1" t="n"/>
-      <c r="H11" s="1" t="n"/>
-      <c r="I11" s="1" t="n"/>
-      <c r="J11" s="1" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
       <c r="K11" s="1" t="n"/>
     </row>
   </sheetData>
@@ -1015,14 +917,14 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="A1:XFD1048576"/>
+      <selection activeCell="Q7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="8.25"/>
-    <col bestFit="1" customWidth="1" max="5" min="2" style="22" width="8.25"/>
-    <col bestFit="1" customWidth="1" max="11" min="6" style="21" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="10" min="2" style="22" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="21" width="8.25"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="19.5" r="1" spans="1:11">
@@ -1031,288 +933,288 @@
       <c r="C1" s="2" t="n"/>
       <c r="D1" s="2" t="n"/>
       <c r="E1" s="2" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
       <c r="K1" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="2" spans="1:11">
       <c r="A2" s="1" t="n"/>
-      <c r="B2" s="55" t="n">
+      <c r="B2" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="56" t="n">
+      <c r="C2" s="33" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="57" t="n">
+      <c r="D2" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="55" t="n">
+      <c r="E2" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="F2" s="58" t="n">
+      <c r="F2" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="G2" s="59" t="n">
+      <c r="G2" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="60" t="n">
+      <c r="H2" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="I2" s="61" t="n">
+      <c r="I2" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="59" t="n">
+      <c r="J2" s="34" t="n">
         <v>5</v>
       </c>
       <c r="K2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="3" spans="1:11">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="62" t="n">
+      <c r="B3" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="63" t="n">
+      <c r="C3" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="D3" s="64" t="n">
+      <c r="D3" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="62" t="n">
+      <c r="E3" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="65" t="n">
+      <c r="F3" s="37" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="66" t="n">
+      <c r="G3" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="67" t="n">
+      <c r="H3" s="40" t="n">
         <v>6</v>
       </c>
-      <c r="I3" s="65" t="n">
+      <c r="I3" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="66" t="n">
+      <c r="J3" s="39" t="n">
         <v>9</v>
       </c>
       <c r="K3" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="48" r="4" spans="1:11">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="68" t="n">
+      <c r="B4" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="69" t="n">
+      <c r="C4" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="D4" s="70" t="n">
+      <c r="D4" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="68" t="n">
+      <c r="E4" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="71" t="n">
+      <c r="F4" s="44" t="n">
         <v>7</v>
       </c>
-      <c r="G4" s="72" t="n">
+      <c r="G4" s="43" t="n">
         <v>9</v>
       </c>
-      <c r="H4" s="73" t="n">
+      <c r="H4" s="41" t="n">
         <v>8</v>
       </c>
-      <c r="I4" s="74" t="n">
+      <c r="I4" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="72" t="n">
+      <c r="J4" s="43" t="n">
         <v>3</v>
       </c>
       <c r="K4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="5" spans="1:11">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="55" t="n">
+      <c r="B5" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="C5" s="56" t="n">
+      <c r="C5" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="57" t="n">
+      <c r="D5" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="75" t="n">
+      <c r="E5" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="61" t="n">
+      <c r="F5" s="33" t="n">
         <v>9</v>
       </c>
-      <c r="G5" s="76" t="n">
+      <c r="G5" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="60" t="n">
+      <c r="H5" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="61" t="n">
+      <c r="I5" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="59" t="n">
+      <c r="J5" s="34" t="n">
         <v>8</v>
       </c>
       <c r="K5" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="6" spans="1:11">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="77" t="n">
+      <c r="B6" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="63" t="n">
+      <c r="C6" s="37" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="78" t="n">
+      <c r="D6" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="E6" s="77" t="n">
+      <c r="E6" s="40" t="n">
         <v>7</v>
       </c>
-      <c r="F6" s="79" t="n">
+      <c r="F6" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="80" t="n">
+      <c r="G6" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="H6" s="81" t="n">
+      <c r="H6" s="36" t="n">
         <v>9</v>
       </c>
-      <c r="I6" s="65" t="n">
+      <c r="I6" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="80" t="n">
+      <c r="J6" s="38" t="n">
         <v>6</v>
       </c>
       <c r="K6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="48" r="7" spans="1:11">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="68" t="n">
+      <c r="B7" s="48" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="69" t="n">
+      <c r="C7" s="42" t="n">
         <v>8</v>
       </c>
-      <c r="D7" s="70" t="n">
+      <c r="D7" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="68" t="n">
+      <c r="E7" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="71" t="n">
+      <c r="F7" s="44" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="72" t="n">
+      <c r="G7" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="73" t="n">
+      <c r="H7" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="74" t="n">
+      <c r="I7" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="J7" s="72" t="n">
+      <c r="J7" s="43" t="n">
         <v>2</v>
       </c>
       <c r="K7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="8" spans="1:11">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="55" t="n">
+      <c r="B8" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="56" t="n">
+      <c r="C8" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="82" t="n">
+      <c r="D8" s="46" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="55" t="n">
+      <c r="E8" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="F8" s="61" t="n">
+      <c r="F8" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="59" t="n">
+      <c r="G8" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="83" t="n">
+      <c r="H8" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="61" t="n">
+      <c r="I8" s="33" t="n">
         <v>8</v>
       </c>
-      <c r="J8" s="59" t="n">
+      <c r="J8" s="34" t="n">
         <v>7</v>
       </c>
       <c r="K8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="9" spans="1:11">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="62" t="n">
+      <c r="B9" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="63" t="n">
+      <c r="C9" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="64" t="n">
+      <c r="D9" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="77" t="n">
+      <c r="E9" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="79" t="n">
+      <c r="F9" s="47" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="80" t="n">
+      <c r="G9" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="H9" s="67" t="n">
+      <c r="H9" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="65" t="n">
+      <c r="I9" s="37" t="n">
         <v>9</v>
       </c>
-      <c r="J9" s="66" t="n">
+      <c r="J9" s="39" t="n">
         <v>4</v>
       </c>
       <c r="K9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="10" spans="1:11">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="68" t="n">
+      <c r="B10" s="41" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="69" t="n">
+      <c r="C10" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="70" t="n">
+      <c r="D10" s="43" t="n">
         <v>9</v>
       </c>
-      <c r="E10" s="84" t="n">
+      <c r="E10" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="71" t="n">
+      <c r="F10" s="44" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="85" t="n">
+      <c r="G10" s="49" t="n">
         <v>7</v>
       </c>
-      <c r="H10" s="73" t="n">
+      <c r="H10" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="74" t="n">
+      <c r="I10" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="72" t="n">
+      <c r="J10" s="43" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="1" t="n"/>
@@ -1323,11 +1225,11 @@
       <c r="C11" s="2" t="n"/>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
-      <c r="F11" s="1" t="n"/>
-      <c r="G11" s="1" t="n"/>
-      <c r="H11" s="1" t="n"/>
-      <c r="I11" s="1" t="n"/>
-      <c r="J11" s="1" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
       <c r="K11" s="1" t="n"/>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-28920" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input Matrix" sheetId="1" state="visible" r:id="rId1"/>
@@ -63,18 +63,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC166"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -250,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -258,93 +258,90 @@
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="2" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="3" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="4" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="8" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="5" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="2" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -354,49 +351,49 @@
     <xf applyAlignment="1" borderId="4" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="4" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="3" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="2" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="8" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,15 +695,15 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="8.25"/>
-    <col bestFit="1" customWidth="1" max="10" min="2" style="22" width="8.25"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="21" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="10" min="2" style="4" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="3" width="8.25"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18.75" r="1" spans="1:11" thickBot="1">
@@ -724,169 +721,165 @@
     </row>
     <row customHeight="1" ht="47.25" r="2" spans="1:11">
       <c r="A2" s="1" t="n"/>
-      <c r="B2" s="23" t="n"/>
-      <c r="C2" s="24" t="n"/>
-      <c r="D2" s="25" t="n"/>
-      <c r="E2" s="23" t="n"/>
-      <c r="F2" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" s="25" t="n"/>
-      <c r="H2" s="23" t="n"/>
-      <c r="I2" s="24" t="n"/>
-      <c r="J2" s="25" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="6" t="n"/>
+      <c r="J2" s="7" t="n"/>
       <c r="K2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="3" spans="1:11">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="27" t="n"/>
-      <c r="D3" s="28" t="n"/>
-      <c r="E3" s="26" t="n">
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="27" t="n"/>
-      <c r="G3" s="28" t="n">
+      <c r="C3" s="9" t="n"/>
+      <c r="D3" s="10" t="n"/>
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="26" t="n"/>
-      <c r="I3" s="27" t="n"/>
-      <c r="J3" s="28" t="n">
-        <v>9</v>
-      </c>
+      <c r="H3" s="8" t="n"/>
+      <c r="I3" s="9" t="n"/>
+      <c r="J3" s="10" t="n"/>
       <c r="K3" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="48" r="4" spans="1:11" thickBot="1">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="29" t="n"/>
-      <c r="C4" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" s="31" t="n"/>
-      <c r="E4" s="29" t="n"/>
-      <c r="F4" s="30" t="n"/>
-      <c r="G4" s="31" t="n"/>
-      <c r="H4" s="29" t="n"/>
-      <c r="I4" s="30" t="n">
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="31" t="n"/>
+      <c r="E4" s="11" t="n"/>
+      <c r="F4" s="12" t="n"/>
+      <c r="G4" s="13" t="n"/>
+      <c r="H4" s="11" t="n"/>
+      <c r="I4" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="13" t="n"/>
       <c r="K4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="5" spans="1:11">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="23" t="n"/>
-      <c r="C5" s="24" t="n"/>
-      <c r="D5" s="25" t="n"/>
-      <c r="E5" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="24" t="n"/>
-      <c r="G5" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="23" t="n"/>
-      <c r="I5" s="24" t="n"/>
-      <c r="J5" s="25" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>6</v>
+      </c>
       <c r="K5" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="6" spans="1:11">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="26" t="n"/>
-      <c r="C6" s="27" t="n"/>
-      <c r="D6" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="26" t="n"/>
-      <c r="F6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="28" t="n"/>
-      <c r="H6" s="26" t="n">
-        <v>9</v>
-      </c>
-      <c r="I6" s="27" t="n"/>
-      <c r="J6" s="28" t="n"/>
+      <c r="B6" s="8" t="n"/>
+      <c r="C6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="8" t="n"/>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="8" t="n"/>
+      <c r="I6" s="9" t="n"/>
+      <c r="J6" s="10" t="n"/>
       <c r="K6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="7" spans="1:11" thickBot="1">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="29" t="n">
+      <c r="B7" s="11" t="n"/>
+      <c r="C7" s="12" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="11" t="n"/>
+      <c r="F7" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13" t="n"/>
+      <c r="H7" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="30" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" s="31" t="n"/>
-      <c r="E7" s="29" t="n"/>
-      <c r="F7" s="30" t="n"/>
-      <c r="G7" s="31" t="n"/>
-      <c r="H7" s="29" t="n"/>
-      <c r="I7" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" s="31" t="n"/>
       <c r="K7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="8" spans="1:11">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="23" t="n"/>
-      <c r="C8" s="24" t="n"/>
-      <c r="D8" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="23" t="n"/>
-      <c r="F8" s="24" t="n"/>
-      <c r="G8" s="25" t="n"/>
-      <c r="H8" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="24" t="n"/>
-      <c r="J8" s="25" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="6" t="n"/>
+      <c r="J8" s="7" t="n"/>
       <c r="K8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="9" spans="1:11">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27" t="n"/>
-      <c r="D9" s="28" t="n"/>
-      <c r="E9" s="26" t="n"/>
-      <c r="F9" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" s="28" t="n"/>
-      <c r="H9" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="27" t="n"/>
-      <c r="J9" s="28" t="n">
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9" t="n">
         <v>4</v>
       </c>
+      <c r="G9" s="10" t="n"/>
+      <c r="H9" s="8" t="n"/>
+      <c r="I9" s="9" t="n"/>
+      <c r="J9" s="10" t="n"/>
       <c r="K9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="10" spans="1:11" thickBot="1">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="29" t="n"/>
-      <c r="C10" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="31" t="n"/>
-      <c r="E10" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" s="30" t="n"/>
-      <c r="G10" s="31" t="n">
-        <v>7</v>
-      </c>
-      <c r="H10" s="29" t="n"/>
-      <c r="I10" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="31" t="n"/>
+      <c r="B10" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12" t="n"/>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="11" t="n"/>
+      <c r="F10" s="12" t="n"/>
+      <c r="G10" s="13" t="n"/>
+      <c r="H10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12" t="n"/>
+      <c r="J10" s="13" t="n"/>
       <c r="K10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="11" spans="1:11">
@@ -916,15 +909,15 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="21" width="8.25"/>
-    <col bestFit="1" customWidth="1" max="10" min="2" style="22" width="8.25"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="21" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="10" min="2" style="4" width="8.25"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="3" width="8.25"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="19.5" r="1" spans="1:11">
@@ -942,280 +935,280 @@
     </row>
     <row customHeight="1" ht="47.25" r="2" spans="1:11">
       <c r="A2" s="1" t="n"/>
-      <c r="B2" s="32" t="n">
+      <c r="B2" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" s="34" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="33" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="32" t="n">
-        <v>8</v>
-      </c>
-      <c r="F2" s="35" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" s="34" t="n">
+      <c r="I2" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="33" t="n">
         <v>3</v>
-      </c>
-      <c r="H2" s="32" t="n">
-        <v>7</v>
-      </c>
-      <c r="I2" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="34" t="n">
-        <v>5</v>
       </c>
       <c r="K2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="3" spans="1:11">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="36" t="n">
+      <c r="B3" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="37" t="n">
+      <c r="D3" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" s="39" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" s="37" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" s="38" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="37" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" s="40" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="39" t="n">
-        <v>9</v>
       </c>
       <c r="K3" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="48" r="4" spans="1:11">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" s="42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="42" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="44" t="n">
-        <v>7</v>
-      </c>
-      <c r="G4" s="43" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" s="41" t="n">
+      <c r="I4" s="42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="45" t="n">
         <v>8</v>
-      </c>
-      <c r="I4" s="42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" s="43" t="n">
-        <v>3</v>
       </c>
       <c r="K4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="5" spans="1:11">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="32" t="n">
+      <c r="B5" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="46" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" s="33" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="47" t="n">
         <v>7</v>
       </c>
-      <c r="C5" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="34" t="n">
+      <c r="I5" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="45" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="33" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" s="46" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="32" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" s="33" t="n">
-        <v>3</v>
-      </c>
       <c r="J5" s="34" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="6" spans="1:11">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="40" t="n">
+      <c r="B6" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="37" t="n">
+      <c r="D6" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="37" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" s="38" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="40" t="n">
-        <v>7</v>
-      </c>
-      <c r="F6" s="47" t="n">
+      <c r="J6" s="37" t="n">
         <v>1</v>
-      </c>
-      <c r="G6" s="38" t="n">
-        <v>8</v>
-      </c>
-      <c r="H6" s="36" t="n">
-        <v>9</v>
-      </c>
-      <c r="I6" s="37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" s="38" t="n">
-        <v>6</v>
       </c>
       <c r="K6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="48" r="7" spans="1:11">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="48" t="n">
+      <c r="B7" s="41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="41" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" s="42" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="48" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="43" t="n">
         <v>9</v>
-      </c>
-      <c r="C7" s="42" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" s="43" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="44" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="42" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" s="43" t="n">
-        <v>2</v>
       </c>
       <c r="K7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="8" spans="1:11">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" s="33" t="n">
+      <c r="B8" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="46" t="n">
+      <c r="C8" s="46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="31" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="33" t="n">
         <v>4</v>
-      </c>
-      <c r="E8" s="32" t="n">
-        <v>9</v>
-      </c>
-      <c r="F8" s="33" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="45" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" s="34" t="n">
-        <v>7</v>
       </c>
       <c r="K8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="9" spans="1:11">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="36" t="n">
+      <c r="B9" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="38" t="n">
+      <c r="D9" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="35" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="37" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="40" t="n">
+      <c r="J9" s="37" t="n">
         <v>5</v>
-      </c>
-      <c r="F9" s="47" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" s="38" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="37" t="n">
-        <v>9</v>
-      </c>
-      <c r="J9" s="39" t="n">
-        <v>4</v>
       </c>
       <c r="K9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="10" spans="1:11">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="41" t="n">
+      <c r="B10" s="48" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="42" t="n">
+      <c r="C10" s="44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="45" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="45" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="45" t="n">
         <v>2</v>
-      </c>
-      <c r="D10" s="43" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" s="48" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" s="44" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="49" t="n">
-        <v>7</v>
-      </c>
-      <c r="H10" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="42" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="43" t="n">
-        <v>1</v>
       </c>
       <c r="K10" s="1" t="n"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-28920" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="28785"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input Matrix" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Solution Matrix" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -20,36 +20,178 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="黑体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <color rgb="FF000000"/>
       <sz val="36"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill/>
     </fill>
@@ -59,6 +201,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC166"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -69,12 +224,182 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC166"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -88,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -246,33 +571,284 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="7" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="11" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="15" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="15" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="16" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="35" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf applyAlignment="1" borderId="2" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="4" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="5" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -282,34 +858,43 @@
     <xf applyAlignment="1" borderId="7" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="7" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="8" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="9" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="3" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="6" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
@@ -318,87 +903,120 @@
     <xf applyAlignment="1" borderId="7" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="9" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="6" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="7" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="5" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="36" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="36" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="37" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="37" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="36" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="37" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="36" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="36" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="37" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="36" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="37" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="36" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="37" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="37" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="36" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="36" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="37" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="37" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -683,7 +1301,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -696,204 +1313,206 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="A1:XFD1048576"/>
+      <selection activeCell="N4" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="8.25"/>
-    <col bestFit="1" customWidth="1" max="10" min="2" style="4" width="8.25"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="3" width="8.25"/>
+    <col customWidth="1" max="1" min="1" style="1" width="8.25"/>
+    <col customWidth="1" max="10" min="2" style="2" width="8.25"/>
+    <col customWidth="1" max="11" min="11" style="1" width="8.25"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18.75" r="1" spans="1:11" thickBot="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="1" t="n"/>
+    <row customHeight="1" ht="18.75" r="1" spans="1:11">
+      <c r="A1" s="3" t="n"/>
+      <c r="B1" s="4" t="n"/>
+      <c r="C1" s="4" t="n"/>
+      <c r="D1" s="4" t="n"/>
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="4" t="n"/>
+      <c r="G1" s="4" t="n"/>
+      <c r="H1" s="4" t="n"/>
+      <c r="I1" s="4" t="n"/>
+      <c r="J1" s="4" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="2" spans="1:11">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="7" t="n">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="32" t="n"/>
+      <c r="C2" s="33" t="n"/>
+      <c r="D2" s="36" t="n"/>
+      <c r="E2" s="32" t="n"/>
+      <c r="F2" s="33" t="n"/>
+      <c r="G2" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="32" t="n"/>
+      <c r="I2" s="33" t="n"/>
+      <c r="J2" s="36" t="n"/>
+      <c r="K2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="47.25" r="3" spans="1:11">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41" t="n"/>
+      <c r="E3" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" s="39" t="n"/>
+      <c r="G3" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="38" t="n"/>
+      <c r="I3" s="39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" s="41" t="n"/>
+      <c r="K3" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="48" r="4" spans="1:11">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="46" t="n"/>
+      <c r="D4" s="47" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="46" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="6" t="n"/>
-      <c r="J2" s="7" t="n"/>
-      <c r="K2" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="47.25" r="3" spans="1:11">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="8" t="n">
+      <c r="G4" s="47" t="n"/>
+      <c r="H4" s="43" t="n"/>
+      <c r="I4" s="46" t="n"/>
+      <c r="J4" s="47" t="n"/>
+      <c r="K4" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="47.25" r="5" spans="1:11">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="32" t="n"/>
+      <c r="C5" s="33" t="n"/>
+      <c r="D5" s="36" t="n"/>
+      <c r="E5" s="32" t="n"/>
+      <c r="F5" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="n"/>
-      <c r="D3" s="10" t="n"/>
-      <c r="E3" s="8" t="n"/>
-      <c r="F3" s="9" t="n">
+      <c r="H5" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="33" t="n"/>
+      <c r="J5" s="36" t="n"/>
+      <c r="K5" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="6" spans="1:11">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="38" t="n"/>
+      <c r="C6" s="39" t="n"/>
+      <c r="D6" s="41" t="n"/>
+      <c r="E6" s="38" t="n"/>
+      <c r="F6" s="39" t="n"/>
+      <c r="G6" s="41" t="n"/>
+      <c r="H6" s="38" t="n"/>
+      <c r="I6" s="39" t="n"/>
+      <c r="J6" s="41" t="n"/>
+      <c r="K6" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="7" spans="1:11">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="46" t="n"/>
+      <c r="D7" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="43" t="n"/>
+      <c r="F7" s="46" t="n"/>
+      <c r="G7" s="47" t="n"/>
+      <c r="H7" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="46" t="n"/>
+      <c r="J7" s="47" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="8" spans="1:11">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="32" t="n"/>
+      <c r="C8" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36" t="n"/>
+      <c r="E8" s="32" t="n"/>
+      <c r="F8" s="33" t="n"/>
+      <c r="G8" s="36" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="G3" s="10" t="n">
+      <c r="I8" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="36" t="n"/>
+      <c r="K8" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="9" spans="1:11">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="n"/>
-      <c r="I3" s="9" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="48" r="4" spans="1:11" thickBot="1">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="11" t="n"/>
-      <c r="C4" s="12" t="n">
+      <c r="D9" s="41" t="n"/>
+      <c r="E9" s="38" t="n"/>
+      <c r="F9" s="39" t="n"/>
+      <c r="G9" s="41" t="n"/>
+      <c r="H9" s="38" t="n"/>
+      <c r="I9" s="39" t="n"/>
+      <c r="J9" s="41" t="n"/>
+      <c r="K9" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="10" spans="1:11">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="46" t="n"/>
+      <c r="D10" s="47" t="n"/>
+      <c r="E10" s="43" t="n"/>
+      <c r="F10" s="46" t="n"/>
+      <c r="G10" s="47" t="n"/>
+      <c r="H10" s="43" t="n"/>
+      <c r="I10" s="46" t="n"/>
+      <c r="J10" s="47" t="n">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" s="11" t="n"/>
-      <c r="F4" s="12" t="n"/>
-      <c r="G4" s="13" t="n"/>
-      <c r="H4" s="11" t="n"/>
-      <c r="I4" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="13" t="n"/>
-      <c r="K4" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="47.25" r="5" spans="1:11">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="6" spans="1:11">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10" t="n"/>
-      <c r="E6" s="8" t="n"/>
-      <c r="F6" s="9" t="n"/>
-      <c r="G6" s="10" t="n"/>
-      <c r="H6" s="8" t="n"/>
-      <c r="I6" s="9" t="n"/>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="7" spans="1:11" thickBot="1">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="12" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="11" t="n"/>
-      <c r="F7" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" s="13" t="n"/>
-      <c r="H7" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="K7" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="8" spans="1:11">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="6" t="n"/>
-      <c r="J8" s="7" t="n"/>
-      <c r="K8" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="9" spans="1:11">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="9" t="n"/>
-      <c r="D9" s="10" t="n"/>
-      <c r="E9" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" s="10" t="n"/>
-      <c r="H9" s="8" t="n"/>
-      <c r="I9" s="9" t="n"/>
-      <c r="J9" s="10" t="n"/>
-      <c r="K9" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="10" spans="1:11" thickBot="1">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="n"/>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="11" t="n"/>
-      <c r="F10" s="12" t="n"/>
-      <c r="G10" s="13" t="n"/>
-      <c r="H10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12" t="n"/>
-      <c r="J10" s="13" t="n"/>
-      <c r="K10" s="1" t="n"/>
+      <c r="K10" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="11" spans="1:11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="1" t="n"/>
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="4" t="n"/>
+      <c r="I11" s="4" t="n"/>
+      <c r="J11" s="4" t="n"/>
+      <c r="K11" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -913,317 +1532,317 @@
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="8.25"/>
-    <col bestFit="1" customWidth="1" max="10" min="2" style="4" width="8.25"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="3" width="8.25"/>
+    <col customWidth="1" max="1" min="1" style="1" width="8.25"/>
+    <col customWidth="1" max="10" min="2" style="2" width="8.25"/>
+    <col customWidth="1" max="11" min="11" style="1" width="8.25"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="19.5" r="1" spans="1:11">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="1" t="n"/>
+      <c r="A1" s="3" t="n"/>
+      <c r="B1" s="4" t="n"/>
+      <c r="C1" s="4" t="n"/>
+      <c r="D1" s="4" t="n"/>
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="4" t="n"/>
+      <c r="G1" s="4" t="n"/>
+      <c r="H1" s="4" t="n"/>
+      <c r="I1" s="4" t="n"/>
+      <c r="J1" s="4" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="2" spans="1:11">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="31" t="n">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="n">
+      <c r="J2" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="47.25" r="3" spans="1:11">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="48" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="42" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="J3" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="48" r="4" spans="1:11">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="46" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="45" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="44" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="43" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" s="46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="E2" s="31" t="n">
+      <c r="K4" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="47.25" r="5" spans="1:11">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="33" t="n">
         <v>7</v>
       </c>
-      <c r="F2" s="32" t="n">
+      <c r="J5" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="47.25" r="6" spans="1:11">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="41" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="39" t="n">
         <v>9</v>
       </c>
-      <c r="G2" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="47.25" r="3" spans="1:11">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" s="39" t="n">
+      <c r="J6" s="41" t="n">
         <v>8</v>
       </c>
-      <c r="G3" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" s="38" t="n">
+      <c r="K6" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="48" r="7" spans="1:11">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="49" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="46" t="n">
         <v>2</v>
-      </c>
-      <c r="I3" s="36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="48" r="4" spans="1:11">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="41" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" s="42" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="44" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="45" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" s="42" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="45" t="n">
-        <v>8</v>
-      </c>
-      <c r="K4" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="47.25" r="5" spans="1:11">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="46" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" s="33" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" s="47" t="n">
-        <v>7</v>
-      </c>
-      <c r="I5" s="46" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="47.25" r="6" spans="1:11">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="38" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="38" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" s="36" t="n">
-        <v>7</v>
-      </c>
-      <c r="G6" s="37" t="n">
-        <v>9</v>
-      </c>
-      <c r="H6" s="38" t="n">
-        <v>8</v>
-      </c>
-      <c r="I6" s="36" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="48" r="7" spans="1:11">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="41" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" s="44" t="n">
-        <v>5</v>
       </c>
       <c r="D7" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="41" t="n">
+      <c r="E7" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="46" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" s="47" t="n">
         <v>8</v>
       </c>
-      <c r="F7" s="42" t="n">
+      <c r="H7" s="49" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="45" t="n">
+      <c r="K7" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="47.25" r="8" spans="1:11">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" s="35" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="48" t="n">
+      <c r="K8" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="9" spans="1:11">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="48" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="J9" s="41" t="n">
+        <v>9</v>
+      </c>
+      <c r="K9" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="10" spans="1:11">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="46" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="43" t="n">
-        <v>9</v>
-      </c>
-      <c r="K7" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="47.25" r="8" spans="1:11">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="31" t="n">
+      <c r="E10" s="43" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="46" t="n">
+      <c r="I10" s="46" t="n">
         <v>6</v>
       </c>
-      <c r="D8" s="33" t="n">
+      <c r="J10" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="31" t="n">
-        <v>9</v>
-      </c>
-      <c r="I8" s="32" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" s="33" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="9" spans="1:11">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="35" t="n">
-        <v>9</v>
-      </c>
-      <c r="F9" s="39" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="H9" s="38" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" s="36" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" s="37" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="10" spans="1:11">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="48" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" s="44" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="45" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" s="44" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" s="45" t="n">
-        <v>7</v>
-      </c>
-      <c r="H10" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" s="45" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1" t="n"/>
+      <c r="K10" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="11" spans="1:11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="1" t="n"/>
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="4" t="n"/>
+      <c r="I11" s="4" t="n"/>
+      <c r="J11" s="4" t="n"/>
+      <c r="K11" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
